--- a/SampleDCMap.xlsx
+++ b/SampleDCMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arad\PycharmProjects\SimpliDC_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40CC3DD-3C96-47F8-8161-DCD839CB4772}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38F4970-C7CF-49FC-BC10-B027C5BAD802}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E9720525-B099-4735-B456-B62EF23782C1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>ארון מספר</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>על השולחן של דור</t>
+  </si>
+  <si>
+    <t>סוג הציוד</t>
+  </si>
+  <si>
+    <t>Storage</t>
   </si>
 </sst>
 </file>
@@ -586,20 +592,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA69DFAE-4764-4D24-B30F-D4AE122A18A7}">
-  <dimension ref="A1:BI2"/>
+  <dimension ref="A1:BJ2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="12" width="8.88671875" style="1"/>
-    <col min="13" max="13" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,169 +616,172 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:62" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -783,31 +792,31 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>62</v>
@@ -825,41 +834,41 @@
         <v>62</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="1" t="b">
+      <c r="T2" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Z2" s="1">
-        <v>1</v>
-      </c>
       <c r="AA2" s="1">
         <v>1</v>
       </c>
       <c r="AB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1">
         <v>12</v>
       </c>
-      <c r="AG2" s="1">
-        <v>1</v>
-      </c>
       <c r="AH2" s="1">
         <v>1</v>
       </c>
@@ -942,6 +951,9 @@
         <v>1</v>
       </c>
       <c r="BI2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="1">
         <v>1</v>
       </c>
     </row>

--- a/SampleDCMap.xlsx
+++ b/SampleDCMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arad\PycharmProjects\SimpliDC_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38F4970-C7CF-49FC-BC10-B027C5BAD802}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42C2CDF-B513-49F0-B0F3-01392A4BA99C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E9720525-B099-4735-B456-B62EF23782C1}"/>
   </bookViews>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="90">
   <si>
     <t>ארון מספר</t>
   </si>
@@ -201,9 +210,6 @@
     <t>netapp</t>
   </si>
   <si>
-    <t>234567890oijh</t>
-  </si>
-  <si>
     <t>A220</t>
   </si>
   <si>
@@ -238,6 +244,66 @@
   </si>
   <si>
     <t>Storage</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Xdevice</t>
+  </si>
+  <si>
+    <t>cisco-ucs</t>
+  </si>
+  <si>
+    <t>check-point-firewall</t>
+  </si>
+  <si>
+    <t>kvm</t>
+  </si>
+  <si>
+    <t>eifknwekfnwekl</t>
+  </si>
+  <si>
+    <t>efdwecz</t>
+  </si>
+  <si>
+    <t>fewfczfw</t>
+  </si>
+  <si>
+    <t>efzsfrez</t>
+  </si>
+  <si>
+    <t>C240M5</t>
+  </si>
+  <si>
+    <t>R8000</t>
+  </si>
+  <si>
+    <t>SHITBOX</t>
+  </si>
+  <si>
+    <t>4.4.67.4</t>
+  </si>
+  <si>
+    <t>34.35.35.3</t>
+  </si>
+  <si>
+    <t>24.245.33.3</t>
+  </si>
+  <si>
+    <t>VeryNew10</t>
+  </si>
+  <si>
+    <t>WindowsSerber2016</t>
+  </si>
+  <si>
+    <t>Backup</t>
+  </si>
+  <si>
+    <t>Prod</t>
   </si>
 </sst>
 </file>
@@ -592,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA69DFAE-4764-4D24-B30F-D4AE122A18A7}">
-  <dimension ref="A1:BJ2"/>
+  <dimension ref="A1:BJ5"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="BF3" sqref="BF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -792,73 +858,73 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="T2" s="1" t="b">
         <v>0</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AA2" s="1">
         <v>1</v>
@@ -954,6 +1020,534 @@
         <v>1</v>
       </c>
       <c r="BJ2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>12</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>12</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>12</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="1">
         <v>1</v>
       </c>
     </row>

--- a/SampleDCMap.xlsx
+++ b/SampleDCMap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arad\PycharmProjects\SimpliDC_Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SimpliDC\SimpliDC_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42C2CDF-B513-49F0-B0F3-01392A4BA99C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C24FD51-6CE9-451E-9760-AC9A332E79F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E9720525-B099-4735-B456-B62EF23782C1}"/>
   </bookViews>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -252,9 +243,6 @@
     <t>Network</t>
   </si>
   <si>
-    <t>Xdevice</t>
-  </si>
-  <si>
     <t>cisco-ucs</t>
   </si>
   <si>
@@ -304,6 +292,9 @@
   </si>
   <si>
     <t>Prod</t>
+  </si>
+  <si>
+    <t>XDevice</t>
   </si>
 </sst>
 </file>
@@ -660,13 +651,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA69DFAE-4764-4D24-B30F-D4AE122A18A7}">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BF3" sqref="BF3"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="13" width="8.88671875" style="1"/>
+    <col min="1" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="33.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="1" customWidth="1"/>
+    <col min="10" max="13" width="8.88671875" style="1"/>
     <col min="14" max="14" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -864,7 +858,7 @@
         <v>57</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>58</v>
@@ -1037,19 +1031,19 @@
         <v>70</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>61</v>
@@ -1079,7 +1073,7 @@
         <v>61</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T3" s="1" t="b">
         <v>0</v>
@@ -1088,10 +1082,10 @@
         <v>61</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>64</v>
@@ -1213,19 +1207,19 @@
         <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>61</v>
@@ -1255,7 +1249,7 @@
         <v>61</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T4" s="1" t="b">
         <v>0</v>
@@ -1386,22 +1380,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>61</v>

--- a/SampleDCMap.xlsx
+++ b/SampleDCMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SimpliDC\SimpliDC_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C24FD51-6CE9-451E-9760-AC9A332E79F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF47B45E-223E-43BD-AC99-48E11262FA00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E9720525-B099-4735-B456-B62EF23782C1}"/>
   </bookViews>
@@ -652,12 +652,14 @@
   <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="8.88671875" style="1"/>
+    <col min="1" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="28.77734375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="1"/>
     <col min="8" max="8" width="33.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.88671875" style="1" customWidth="1"/>
     <col min="10" max="13" width="8.88671875" style="1"/>
